--- a/result_files/crawl_result.xlsx
+++ b/result_files/crawl_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,204 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025년 전교생 대상 온라인 SW교육 신청 안내 (유료교육 전액 지원)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=38</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025년 SW중심대학 주관학과 사업설명회 자료 공유</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025년도 한국통신학회 동계종합학술발표회 아이디어 경진대회 참가자 SW마일리지 부여</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025 국민대학교 코딩역량인증제 인증시험 참가자 SW마일리지 부여</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ICCAS 2025 해외교육 프로그램 참가 신청 안내(25.08.25-8.31, 오스트리아/해외교육비 지원)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=34</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025년 SW중심대학 주관학과 사업설명회 안내(25.03.13(목) 12시~)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[IITP홍보] 2025 미국 CMU AI 심화교육프로그램 파견 교육생 모집 안내(대학원생-국비 교육비 체제비 지원)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[소중협] (홍보) 그렙 「2025 프로그래머스 코드챌린지」 개최 안내</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025년도 SW마에스트로 과정 제16기 연수생 모집 공고 (우수학생 추천)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result_files/crawl_result.xlsx
+++ b/result_files/crawl_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,402 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025년도 한국통신학회 아이디어 경진대회(25.02.06.~07.) 참가 지원</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[융합트랙] 2025학년도 스마트헬스케어SW 융합트랙 이수 신청 안내(학과: 보건행정학과)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[융합트랙] 2025학년도 AI기반 디지털정밀농업 융합트랙 이수 신청 안내(학과: 식물자원학과)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[융합트랙] 2025학년도 스마트인프라SW 융합트랙 이수 신청 안내(학과: 스마트인프라공학과)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[융합트랙] 2025학년도 스마트시티&amp;모빌리티 융합트랙 이수 신청 안내(학과: 도시‧교통공학과)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[융합트랙] 2025학년도 AI로봇설계 융합트랙 이수 신청 안내(학과: 기계자동차공학부 기계설계공학전공)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[연계전공] 2025학년도 지능형스마트팜연계전공 이수 신청 안내(참여학과:스마트팜공학과/주관학과: 소프트웨어학과)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[연계전공] 2025학년도 미래자동차SW연계전공 이수 신청 안내(참여학과:미래자동차공학과/주관학과: 스마트정보기술공학과)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[연계전공] 2025학년도 AI기반의료정보분석 연계전공 이수 신청 안내(참여학과:의료정보학과/주관학과: 인공지능학부)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>[홍보] [이스트소프트] 채용연계 교육 과정 (이스트캠프 백엔드, 프론트엔드, iOS 개발자 과정)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024년 SW중심대학사업 SW마일리지 장학금 지급 명단 안내 (총 205명)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[추천채용] (주)머신앤비전</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-12-24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[홍보] [네이버클라우드] 2024 특별 커리어 성장 세미나 및 정보보안 교육과정 설명회 개최</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[홍보] LG Aimers 6기 모집 (접수기간 : ~24. 12. 19.(목) 18시까지)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[충남테크노파크] 2024년 혁신네트워크 활성화를 위한 청년 구직 희망 조사</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[소중협] SW중심대학 백서발간을 위한 설문조사(추첨 300명 기프티콘)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=9</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024년도 SW인재페스티벌 참가</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=8</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024년 SW융합캡스톤디자인 경진대회 개최</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result_files/crawl_result.xlsx
+++ b/result_files/crawl_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,996 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(홍보)[한국항공우주연구원] 초격차 스타트업 인재발굴 및 채용지원 프로그램 참여자 모집 홍보</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=137</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(홍보)IITP 2026 AI·ICT 산업·기술전망 컨퍼런스</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=136</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(안내)2025년 디지털혁신네트워크 지역인재 채용 면접 희망자 신청 안내(~25.10.31.16:00)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=135</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>한국언론진흥재단 빅카인즈 OPEN API 사용 신청 안내</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=134</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>국립공주대학교 SW중심대학사업단-한국언론진흥재단 빅카인즈 OPEN API 활용을 위한 업무협약 체결</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=133</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(공지) 2025년 SW알고리즘 경진대회 참여신청 안내 (구글폼 참여신청:11.7. (금) 까지)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=132</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025년 SW전문가 특강(마음Ai, 11월5일(수), 구글폼사전신청 10월 29일(수)까지) 안내</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=131</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(홍보)[경기대학교] 2025 SW전공교수 TOPCIT 릴레이 온라인 특강 안내</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=129</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>(채용) 국립공주대학교 SW중심대학사업단 산학협력초빙교수(비전임) 채용 재공고</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=128</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(홍보) 온라인 특강 안내( 25.10.21.(화) 19시~20시, 온라인, 삼성전자 박수홍 오픈소스그룹장)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=125</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(공지-보완) 프로그래머스 &amp; N사 현직자와 함께하는 백엔드 취업 집중 과정 설명회</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=124</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(홍보) 2025 데이터안심구역 활용 공동 경진대회( ~ 25.10.10. 18시)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=123</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025년 SW전문가 특강(4차) 안내</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=122</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025 SW중심대학 에세이 공모전 ('25. 10. 1.(수) ~ 10.14.(화), 17시) 접수 안내</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=121</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(마감) 2025 SW인재페스티벌 우수작품 경진대회 출품작 모집 안내</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=120</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(공지) 2025학년도 2학기 산학캡스톤디자인 프로젝트 운영 안내</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=119</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(신청마감) [제24회 TOPCIT 정기평가 시행 안내] -구글폼신청[9/15(월) 08:30~9/16(화)15시까지 (선착순)]</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=118</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025년 COEIC 집중교육 교육대상자 선정 안내(SW마일리지, value-up 마일리지 부여)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-08-18</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=109</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>(마감) 2025년 충남 학생 정보과학 챌린지 개최</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=106</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>(마감) 2025년 COEIC 집중교육 참여 신청 안내(SW마일리지 부여/~25. 8. 14. 13:00)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=105</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(마감) 2025년 TOPCIT 파일럿테스트 참여 신청 안내(SW마일리지 50점 &amp; 기프티콘 ) - 선착순25명+대기5명</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=104</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>(마감)2025학년도 2학기 「ICT 학점연계 프로젝트 인턴십 사업」 학생 모집 안내</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=103</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>지역 SW전공 학생 취업희망 수요조사 실시_충남테크노파크, 지역SW중심대학사업단</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=102</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>(안내)2025년 충남 인공지능 실증랩 운영계획 안내_충남연구원</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=101</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025년 2학기 창업교과목 수강신청 안내(SW마일리지 50점)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-07-25</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=100</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025년도 2학기 주관학과 SW마일리지 점수표 공지(2025.07.10. 기준)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=98</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>(홍보) 충남콘텐츠진흥원 「피지컬 AI 대학생 창업 경진대회」 참여 안내(~7.20.까지)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=97</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025년 주관학과 대상 SW교육(COEIC) 진단평가 및 교육 신청 안내(~25.7.20.)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=95</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>제23회 TOPCIT 정기평가 성적우수자 총장상 시상식 개최</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=94</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>25년 1학기 SW중심대학사업 SW마일리지 장학금 지급 명단 안내 (총 140명)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=93</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>제23회 TOPCIT 정기평가 성적우수자 시상 안내</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=92</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025년 1학기 SW마일리지 적립내역 확인 및 추가 신청 안내( ~25.7.8.(화) 17:00 )</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=91</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025년 SW전문가 특강(3차) 안내</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=84</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025 SW중심대학 디지털 경진대회 참가자 모집 및 신청 안내</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=82</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>(홍보) LG Aimers 7기 모집 (접수기간 : ~25. 6. 19.(목))</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=81</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025 글로벌 SW교육 프로그램(SPP) 해외교육 프로그램 최종합격자 발표</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=80</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>[경기대학교] 2025 AI-Powered SW전공교수 TOPCIT 릴레이 온라인 특강 안내</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=79</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025 주관학과 대상 SW집중교육 운영 안내(PCCP 자격취득 대비용)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-05-09</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=78</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025 글로벌 SW교육 프로그램(SPP) 참가 신청 안내(25.7.6 - 8.2, 4주간, 미국 LA(USC) 등/해외교육비 지원)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-05-08</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=69</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025년 SW전문가 특강 (2차) 안내</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=67</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025 PCCE 합격자 명단 및 PCCP 오프라인 교육 대상자 안내</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=65</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025 PCCE(코딩역량인증시험) 안내</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=64</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025년 WCRC 물류로봇경진대회 개최</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=60</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[ 제23회 TOPCIT 정기평가 시행 안내 ] - 구글폼 신청 ~4.16일까지</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=59</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025 ICCAS 해외교육 프로그램 최종합격자 발표</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>관리자</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://swknu.kongju.ac.kr/community/noticedetail.do?seq=58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
